--- a/Tesis data/Data final 1.xlsx
+++ b/Tesis data/Data final 1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Documents/GitHub/GabrielDelC/Tesis data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44059D3-4C47-7B44-97AF-D181E2181A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454B5BE6-23C5-6845-8966-589B1D7DCC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19440" xr2:uid="{99DE09F1-5558-BF48-A1AE-7F71BF73C211}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,15 +55,6 @@
     <t>INFLATION</t>
   </si>
   <si>
-    <t>GROWTH_VOL</t>
-  </si>
-  <si>
-    <t>FISCAL_VOL</t>
-  </si>
-  <si>
-    <t>TCRB_VOL</t>
-  </si>
-  <si>
     <t>GOBLAL_CAP</t>
   </si>
   <si>
@@ -74,6 +65,15 @@
   </si>
   <si>
     <t>FIN_OPEN</t>
+  </si>
+  <si>
+    <t>GROWTH</t>
+  </si>
+  <si>
+    <t>CONSUM</t>
+  </si>
+  <si>
+    <t>INVEST</t>
   </si>
 </sst>
 </file>
@@ -101,12 +101,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,20 +140,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,3621 +484,3622 @@
   <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="11.6640625" customWidth="1"/>
+    <col min="9" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="13" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>36981</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>17.039397524586878</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>10.393333333333333</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>12.4766666666667</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>1634.9921533675272</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>-32.495441739510682</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>2.0631383790372317</v>
       </c>
-      <c r="H2" s="5">
-        <v>3.1451524456090763</v>
-      </c>
-      <c r="I2" s="5">
-        <v>-14.102340112613904</v>
-      </c>
-      <c r="J2" s="5">
-        <v>7.1601202718578678</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="H2" s="3">
+        <v>1.2159730526857402</v>
+      </c>
+      <c r="I2" s="3">
+        <v>-20.969593962187837</v>
+      </c>
+      <c r="J2" s="3">
+        <v>-4.6391128944094973E-2</v>
+      </c>
+      <c r="K2" s="3">
         <v>10.244488970374901</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="3">
         <v>26.336670000000002</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="4">
         <v>6.51512645827209</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>37072</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>16.381700579852801</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>10.193333333333335</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>12.199999999999998</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>1649.7187809215602</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>6.8619593204019624</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>-1.2932458684735284</v>
       </c>
-      <c r="H3" s="5">
-        <v>3.8790231261731942</v>
-      </c>
-      <c r="I3" s="5">
-        <v>-2.3271010625945285</v>
-      </c>
-      <c r="J3" s="5">
-        <v>6.8694629255141004</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="H3" s="3">
+        <v>1.5967439487064683</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-7.5002316788119652</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-4.6101801519102918E-3</v>
+      </c>
+      <c r="K3" s="3">
         <v>9.8783760472814262</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="3">
         <v>22.393329999999999</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="4">
         <v>-3.8282853933734975</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>37164</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>16.505317768406385</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>9.9766666666666666</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>12.706666666666665</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>1621.5073788774514</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>-14.805495621394007</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>0.24509429408283026</v>
       </c>
-      <c r="H4" s="5">
-        <v>3.9483250006207768</v>
-      </c>
-      <c r="I4" s="5">
-        <v>-6.6850194501454743</v>
-      </c>
-      <c r="J4" s="5">
-        <v>7.8412949864701984</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="H4" s="3">
+        <v>1.0951383484980952</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-5.4607855102234888</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2.4477506081336298E-2</v>
+      </c>
+      <c r="K4" s="3">
         <v>9.2894707293848935</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="3">
         <v>26.156669999999998</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="4">
         <v>2.5423873766201628</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>37256</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>16.464070857475768</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>9.4566666666666652</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>13.203333333333333</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>1598.4070737449599</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>-6.9292332402802153</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>-0.14914014616122029</v>
       </c>
-      <c r="H5" s="5">
-        <v>3.9232780354379431</v>
-      </c>
-      <c r="I5" s="5">
-        <v>4.2150223308223227</v>
-      </c>
-      <c r="J5" s="5">
-        <v>8.4588308186997203</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="H5" s="3">
+        <v>-1.750846923083306E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-6.5355808205385264</v>
+      </c>
+      <c r="J5" s="3">
+        <v>5.1232693338635352E-2</v>
+      </c>
+      <c r="K5" s="3">
         <v>7.8064680268329401</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="3">
         <v>27.066669999999998</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <v>8.4852275340668228</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>37346</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>16.586326651246253</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>9.1433333333333326</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>12.9933333333333</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>1567.9658123523138</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>2.1091936504517643</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>-2.888369209185198</v>
       </c>
-      <c r="H6" s="5">
-        <v>3.9054631994579885</v>
-      </c>
-      <c r="I6" s="5">
-        <v>-1.7116854548357336</v>
-      </c>
-      <c r="J6" s="5">
-        <v>7.6055340231824813</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="H6" s="3">
+        <v>5.0217324014097873</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-1.4976745476353774</v>
+      </c>
+      <c r="J6" s="3">
+        <v>7.3975043293265957E-2</v>
+      </c>
+      <c r="K6" s="3">
         <v>7.5225079662750316</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="3">
         <v>20.026669999999999</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <v>13.237194012197154</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>37437</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>16.88801652664138</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>8.48</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>13.07</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>1547.6256454868635</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>0.38824062930830061</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>3.0843986785051047</v>
       </c>
-      <c r="H7" s="5">
-        <v>4.0218766705099318</v>
-      </c>
-      <c r="I7" s="5">
-        <v>-8.7251758421821304</v>
-      </c>
-      <c r="J7" s="5">
-        <v>7.5786770480661492</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="H7" s="3">
+        <v>4.0866720310863531</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-2.9019306555913031</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5.4112001805459276E-2</v>
+      </c>
+      <c r="K7" s="3">
         <v>7.645399396263719</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="3">
         <v>22.43</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="4">
         <v>7.8140292270435561</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>37529</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>16.469674928913083</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>8.25</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>12.863333333333332</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>1566.9054679546928</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>9.2574397142063809</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>1.0770445268220843</v>
       </c>
-      <c r="H8" s="5">
-        <v>4.1726576653877512</v>
-      </c>
-      <c r="I8" s="5">
-        <v>4.1188359622925459</v>
-      </c>
-      <c r="J8" s="5">
-        <v>7.1353527443439786</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="H8" s="3">
+        <v>4.6259396350070547</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-1.4625042427765385</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.5030619507287477E-2</v>
+      </c>
+      <c r="K8" s="3">
         <v>7.6390951484320579</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="3">
         <v>34.786670000000001</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="4">
         <v>0.63707154854188608</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>37621</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>16.765815528345726</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>8.0266666666666655</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>13.403333333333331</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>1563.0533383065501</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>-7.972028922519379</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>4.4394385308779842</v>
       </c>
-      <c r="H9" s="5">
-        <v>4.2695268752930007</v>
-      </c>
-      <c r="I9" s="5">
-        <v>-6.7459143855788941</v>
-      </c>
-      <c r="J9" s="5">
-        <v>9.6899922524043536</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="H9" s="3">
+        <v>5.4908579559427979</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.0290957584256484</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4.9372773098006348E-2</v>
+      </c>
+      <c r="K9" s="3">
         <v>4.9231307418913746</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="3">
         <v>29.086670000000002</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="4">
         <v>8.6079559002240256</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>37711</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>16.639627093354562</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>7.8533333333333344</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>13.08</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>1675.6794435431195</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>-16.28136225479372</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>2.4927740689794762</v>
       </c>
-      <c r="H10" s="5">
-        <v>3.8959195669460547</v>
-      </c>
-      <c r="I10" s="5">
-        <v>2.6301405237050814</v>
-      </c>
-      <c r="J10" s="5">
-        <v>8.7581928081143676</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="H10" s="3">
+        <v>0.8196933265861529</v>
+      </c>
+      <c r="I10" s="3">
+        <v>7.8610085553223827</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4.3279643662621936E-2</v>
+      </c>
+      <c r="K10" s="3">
         <v>3.7714159716937381</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="3">
         <v>29.983329999999999</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="4">
         <v>-11.21985256475045</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>37802</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>16.694378153625937</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>7.7566666666666668</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>13.016666666666666</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>1870.1104939464858</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>5.6424396139336288</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>1.4679437551875194</v>
       </c>
-      <c r="H11" s="5">
-        <v>2.3296163343890877</v>
-      </c>
-      <c r="I11" s="5">
-        <v>-1.2713425577869957</v>
-      </c>
-      <c r="J11" s="5">
-        <v>8.1860146515159737</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="H11" s="3">
+        <v>2.7020420031056878</v>
+      </c>
+      <c r="I11" s="3">
+        <v>4.6805489403762008</v>
+      </c>
+      <c r="J11" s="3">
+        <v>5.0853212959105082E-2</v>
+      </c>
+      <c r="K11" s="3">
         <v>4.0500504564777762</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="3">
         <v>20.066669999999998</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="4">
         <v>-7.0291079860532681</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>37894</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>17.176245433674609</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>7.7333333333333343</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>12.916666666666666</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>1830.2562651077567</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>-5.2828393770097994</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>-0.64171721869363763</v>
       </c>
-      <c r="H12" s="5">
-        <v>1.3670933145138449</v>
-      </c>
-      <c r="I12" s="5">
-        <v>-5.6992636308897984</v>
-      </c>
-      <c r="J12" s="5">
-        <v>7.4328177225331773</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="H12" s="3">
+        <v>2.9618489906371175</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6.1435855859783945</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4.2826210658566725E-2</v>
+      </c>
+      <c r="K12" s="3">
         <v>3.9657974274545564</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="3">
         <v>20.28</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="4">
         <v>19.7221654634664</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>37986</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>17.431788547574268</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>6.5966666666666667</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>13.520000000000001</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>1813.4135954227024</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>-2.7888116075128844</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>4.1497338885362423</v>
       </c>
-      <c r="H13" s="5">
-        <v>1.0010064176624331</v>
-      </c>
-      <c r="I13" s="5">
-        <v>5.2592560386129499</v>
-      </c>
-      <c r="J13" s="5">
-        <v>7.2509088830271207</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="H13" s="3">
+        <v>3.3380015078436234</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2.5568361192420275</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2.8276066799450963E-2</v>
+      </c>
+      <c r="K13" s="3">
         <v>3.8960197128254839</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="3">
         <v>16.91</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="4">
         <v>22.196746159063334</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>38077</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>17.097367736297294</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>5.84</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>13.78</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>1815.4310645672674</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>-4.6659001062410761</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>6.5424365125049624</v>
       </c>
-      <c r="H14" s="5">
-        <v>1.2913173817007138</v>
-      </c>
-      <c r="I14" s="5">
-        <v>-8.6913889405135372</v>
-      </c>
-      <c r="J14" s="5">
-        <v>7.182567374195286</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="H14" s="3">
+        <v>4.0694065210406638</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5.1733140230847932</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4.0761285282262694E-2</v>
+      </c>
+      <c r="K14" s="3">
         <v>3.6652803383504096</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="3">
         <v>15.973330000000001</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="4">
         <v>29.336365622024292</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>38168</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>16.825280961716906</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>5.43</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>14.036666666666667</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>1828.088526614376</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>10.483317468420774</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>3.3886815425046781</v>
       </c>
-      <c r="H15" s="5">
-        <v>0.79100963299477622</v>
-      </c>
-      <c r="I15" s="5">
-        <v>-7.312152308613233</v>
-      </c>
-      <c r="J15" s="5">
-        <v>6.9713524450475441</v>
-      </c>
-      <c r="K15" s="5">
+      <c r="H15" s="3">
+        <v>3.124191519941327</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4.0395519635757307</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4.1102064013071829E-2</v>
+      </c>
+      <c r="K15" s="3">
         <v>4.3328148991977127</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="3">
         <v>15.67667</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="4">
         <v>6.7744285002010578</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>38260</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>17.281662682280874</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>4.8599999999999994</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>14.113333333333335</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>1814.3383173317623</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="4">
         <v>-6.0980780917099855</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>3.1776597550062275</v>
       </c>
-      <c r="H16" s="5">
-        <v>0.68779683999636432</v>
-      </c>
-      <c r="I16" s="5">
-        <v>5.5727106893311653</v>
-      </c>
-      <c r="J16" s="5">
-        <v>6.8615509087204796</v>
-      </c>
-      <c r="K16" s="5">
+      <c r="H16" s="3">
+        <v>3.1795765347624614</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4.5626599296752079</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4.6388538039663099E-2</v>
+      </c>
+      <c r="K16" s="3">
         <v>4.1031896113175179</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="3">
         <v>14.65</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="4">
         <v>-18.627609178353126</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>38352</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>17.640762602920866</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>4.1066666666666665</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>14.030000000000001</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>1787.0410644968376</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <v>-3.6639496351111216</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>1.8992848949307057</v>
       </c>
-      <c r="H17" s="5">
-        <v>0.69603108409876391</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1.0224072641264312</v>
-      </c>
-      <c r="J17" s="5">
-        <v>8.3998559600099973</v>
-      </c>
-      <c r="K17" s="5">
+      <c r="H17" s="3">
+        <v>3.0725867425427054</v>
+      </c>
+      <c r="I17" s="3">
+        <v>10.04530171251913</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6.6523704598590389E-2</v>
+      </c>
+      <c r="K17" s="3">
         <v>3.4173855721688731</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="3">
         <v>14.26667</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="4">
         <v>12.665327023980302</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>38442</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>16.966375754179342</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>3.7099999999999995</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>13.94</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>1918.1697112097952</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="4">
         <v>2.4443772247801099</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>0.45760273739043189</v>
       </c>
-      <c r="H18" s="5">
-        <v>1.0823212622085885</v>
-      </c>
-      <c r="I18" s="5">
-        <v>6.2940020985230456</v>
-      </c>
-      <c r="J18" s="5">
-        <v>8.0471757221196079</v>
-      </c>
-      <c r="K18" s="5">
+      <c r="H18" s="3">
+        <v>2.8354237112767993</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3.7620800011444451</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6.0491663421988189E-2</v>
+      </c>
+      <c r="K18" s="3">
         <v>4.0156619662751645</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="3">
         <v>12.973330000000001</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="4">
         <v>5.268321574471182</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>38533</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>16.284239020481216</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>3.2466666666666666</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>13.540000000000001</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>1911.1449848192315</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4">
         <v>18.032824996221329</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>1.5059924942183833</v>
       </c>
-      <c r="H19" s="5">
-        <v>1.207090760453063</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0.86101463596894878</v>
-      </c>
-      <c r="J19" s="5">
-        <v>7.4004390880921296</v>
-      </c>
-      <c r="K19" s="5">
+      <c r="H19" s="3">
+        <v>3.2737936655974327</v>
+      </c>
+      <c r="I19" s="3">
+        <v>9.071153099967912</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5.5677089002534916E-2</v>
+      </c>
+      <c r="K19" s="3">
         <v>4.2733614048534783</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="3">
         <v>13.546670000000001</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="4">
         <v>13.725806460287723</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>38625</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>16.575449309758145</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>2.8366666666666664</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>13.17</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>1882.9165684350046</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="4">
         <v>10.931349317946818</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>1.0757677055658539</v>
       </c>
-      <c r="H20" s="5">
-        <v>1.2398208281897392</v>
-      </c>
-      <c r="I20" s="5">
-        <v>-1.6457738290459878</v>
-      </c>
-      <c r="J20" s="5">
-        <v>7.0907504375775154</v>
-      </c>
-      <c r="K20" s="5">
+      <c r="H20" s="3">
+        <v>3.8344979013190854</v>
+      </c>
+      <c r="I20" s="3">
+        <v>11.291193278231781</v>
+      </c>
+      <c r="J20" s="3">
+        <v>6.3828585886824329E-2</v>
+      </c>
+      <c r="K20" s="3">
         <v>3.9108813726078875</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="3">
         <v>12.03</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="4">
         <v>1.4696184467930735</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>38717</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>16.095866429476978</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>2.4133333333333336</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>12.469999999999999</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>1919.2270321497115</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="4">
         <v>22.806274904129207</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>2.0198174797255457</v>
       </c>
-      <c r="H21" s="5">
-        <v>1.3389249098638498</v>
-      </c>
-      <c r="I21" s="5">
-        <v>7.9446028476192128</v>
-      </c>
-      <c r="J21" s="5">
-        <v>7.2677939365533897</v>
-      </c>
-      <c r="K21" s="5">
+      <c r="H21" s="3">
+        <v>4.4667151968633982</v>
+      </c>
+      <c r="I21" s="3">
+        <v>17.626635513375877</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6.853243129878385E-2</v>
+      </c>
+      <c r="K21" s="3">
         <v>3.5905175660436375</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="3">
         <v>13.15</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="4">
         <v>19.947169498598633</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>38807</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>15.133612413933211</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>2.2166666666666668</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>12.450000000000001</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>1932.1861604783887</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="4">
         <v>-3.175853490999466</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>4.7537309827231189</v>
       </c>
-      <c r="H22" s="5">
-        <v>1.1295817378177928</v>
-      </c>
-      <c r="I22" s="5">
-        <v>-2.2872028260745312</v>
-      </c>
-      <c r="J22" s="5">
-        <v>9.5666407587221034</v>
-      </c>
-      <c r="K22" s="5">
+      <c r="H22" s="3">
+        <v>5.2594406607702853</v>
+      </c>
+      <c r="I22" s="3">
+        <v>22.92384940386648</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7.7415724910953304E-2</v>
+      </c>
+      <c r="K22" s="3">
         <v>3.573576626824476</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="3">
         <v>12.22667</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="4">
         <v>35.627615387020924</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>38898</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>14.398727372227263</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>2.06</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>12.553333333333333</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>1996.8659096417043</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="4">
         <v>12.274139885452366</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>1.3638779026822305</v>
       </c>
-      <c r="H23" s="5">
-        <v>1.1920328502831816</v>
-      </c>
-      <c r="I23" s="5">
-        <v>-0.97975217188320429</v>
-      </c>
-      <c r="J23" s="5">
-        <v>10.178449329940721</v>
-      </c>
-      <c r="K23" s="5">
+      <c r="H23" s="3">
+        <v>5.7129111478269294</v>
+      </c>
+      <c r="I23" s="3">
+        <v>17.652394488304633</v>
+      </c>
+      <c r="J23" s="3">
+        <v>8.0364994469893175E-2</v>
+      </c>
+      <c r="K23" s="3">
         <v>3.5728486796679837</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="3">
         <v>13.703329999999999</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="4">
         <v>56.283756441643582</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>38990</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>15.603330795529791</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>1.9400000000000002</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>12.38</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="3">
         <v>2061.5438171696146</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="4">
         <v>10.203434749571318</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3">
         <v>-1.0172393649153382</v>
       </c>
-      <c r="H24" s="5">
-        <v>1.1083823501820687</v>
-      </c>
-      <c r="I24" s="5">
-        <v>-2.1056486774668826</v>
-      </c>
-      <c r="J24" s="5">
-        <v>8.6274684759146929</v>
-      </c>
-      <c r="K24" s="5">
+      <c r="H24" s="3">
+        <v>6.3676807364204109</v>
+      </c>
+      <c r="I24" s="3">
+        <v>15.540784890490794</v>
+      </c>
+      <c r="J24" s="3">
+        <v>7.4531622584391263E-2</v>
+      </c>
+      <c r="K24" s="3">
         <v>3.3789771365565464</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="3">
         <v>13.08</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="4">
         <v>9.2669699368247294</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>39082</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>16.145774208766792</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>1.7700000000000002</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>12.410000000000002</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="3">
         <v>2068.0355609353132</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="4">
         <v>14.707660808461597</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <v>0.89669668306632233</v>
       </c>
-      <c r="H25" s="5">
-        <v>0.85430660950726656</v>
-      </c>
-      <c r="I25" s="5">
-        <v>-7.7876998807758362</v>
-      </c>
-      <c r="J25" s="5">
-        <v>7.8849089945619744</v>
-      </c>
-      <c r="K25" s="5">
+      <c r="H25" s="3">
+        <v>6.5945348155624055</v>
+      </c>
+      <c r="I25" s="3">
+        <v>16.040805050064066</v>
+      </c>
+      <c r="J25" s="3">
+        <v>6.6925577457173258E-2</v>
+      </c>
+      <c r="K25" s="3">
         <v>3.3823789763831171</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="3">
         <v>11.19</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="4">
         <v>6.5339005329957329</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>39172</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>15.542086270220127</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>1.6533333333333333</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>12.313333333333333</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="3">
         <v>2075.9650040472056</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="4">
         <v>8.1851445091648731</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="3">
         <v>0.4384152566385669</v>
       </c>
-      <c r="H26" s="5">
-        <v>0.85314915674278202</v>
-      </c>
-      <c r="I26" s="5">
-        <v>-1.6993537850243827</v>
-      </c>
-      <c r="J26" s="5">
-        <v>7.4186812219065548</v>
-      </c>
-      <c r="K26" s="5">
+      <c r="H26" s="3">
+        <v>7.3312608292210317</v>
+      </c>
+      <c r="I26" s="3">
+        <v>12.348548111092542</v>
+      </c>
+      <c r="J26" s="3">
+        <v>6.0720205581258499E-2</v>
+      </c>
+      <c r="K26" s="3">
         <v>3.2417299041936096</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="3">
         <v>13.49333</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="4">
         <v>-1.2342999571173212</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>39263</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>14.529994237551469</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>1.6266666666666669</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="3">
         <v>12.033333333333333</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="3">
         <v>2054.1563585493905</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="4">
         <v>30.899996378776635</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="3">
         <v>2.926661750950732</v>
       </c>
-      <c r="H27" s="5">
-        <v>0.85012850228614856</v>
-      </c>
-      <c r="I27" s="5">
-        <v>28.120512804684918</v>
-      </c>
-      <c r="J27" s="5">
-        <v>6.9978138353568626</v>
-      </c>
-      <c r="K27" s="5">
+      <c r="H27" s="3">
+        <v>8.2673394431480478</v>
+      </c>
+      <c r="I27" s="3">
+        <v>19.033757342636388</v>
+      </c>
+      <c r="J27" s="3">
+        <v>7.33049428642258E-2</v>
+      </c>
+      <c r="K27" s="3">
         <v>7.1991214124524276</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="3">
         <v>14.5</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="4">
         <v>23.22723200195205</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>39355</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>14.829508525273486</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>1.55</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="3">
         <v>11.89</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="3">
         <v>2030.8010932105724</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="4">
         <v>31.798952131774943</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="3">
         <v>5.2133470536594544</v>
       </c>
-      <c r="H28" s="5">
-        <v>0.6821576208597474</v>
-      </c>
-      <c r="I28" s="5">
-        <v>-10.252392765186137</v>
-      </c>
-      <c r="J28" s="5">
-        <v>6.8402162643167816</v>
-      </c>
-      <c r="K28" s="5">
+      <c r="H28" s="3">
+        <v>8.1914730355515388</v>
+      </c>
+      <c r="I28" s="3">
+        <v>23.923729680572453</v>
+      </c>
+      <c r="J28" s="3">
+        <v>9.6472473751325019E-2</v>
+      </c>
+      <c r="K28" s="3">
         <v>8.5183788798035849</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="3">
         <v>21.633330000000001</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="4">
         <v>-20.568836394705329</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>39447</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="3">
         <v>14.766941382023161</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="3">
         <v>1.3733333333333333</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="3">
         <v>12.083333333333334</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="3">
         <v>2097.8749590265088</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="4">
         <v>28.524634635103428</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <v>5.1175579394102817</v>
       </c>
-      <c r="H29" s="5">
-        <v>1.0752686712934918</v>
-      </c>
-      <c r="I29" s="5">
-        <v>2.4459700223159073</v>
-      </c>
-      <c r="J29" s="5">
-        <v>7.4469160176076281</v>
-      </c>
-      <c r="K29" s="5">
+      <c r="H29" s="3">
+        <v>9.1531844096240746</v>
+      </c>
+      <c r="I29" s="3">
+        <v>22.786544468029842</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.10626104948511463</v>
+      </c>
+      <c r="K29" s="3">
         <v>10.804219699072874</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="3">
         <v>21.3</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="4">
         <v>-16.681556110885907</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>39538</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>14.39790700709036</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <v>1.38</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="3">
         <v>12.209999999999999</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="3">
         <v>2038.9127225690484</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="4">
         <v>19.991388380166988</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="3">
         <v>5.4147403405043679</v>
       </c>
-      <c r="H30" s="5">
-        <v>1.5038860800162026</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1.5474048853478692</v>
-      </c>
-      <c r="J30" s="5">
-        <v>10.94734945864025</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="H30" s="3">
+        <v>8.6000785800794635</v>
+      </c>
+      <c r="I30" s="3">
+        <v>24.399385472344463</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.11700906691113605</v>
+      </c>
+      <c r="K30" s="3">
         <v>12.566387562216516</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="3">
         <v>26.116669999999999</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="4">
         <v>2.6487212435741805</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>39629</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="3">
         <v>13.274939969620736</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>1.2766666666666666</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="3">
         <v>12.183333333333335</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="3">
         <v>2005.603995073873</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="4">
         <v>26.556740719527788</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="3">
         <v>5.8952130550630653</v>
       </c>
-      <c r="H31" s="5">
-        <v>1.9963670175431398</v>
-      </c>
-      <c r="I31" s="5">
-        <v>-19.1519670435172</v>
-      </c>
-      <c r="J31" s="5">
-        <v>10.48405504810094</v>
-      </c>
-      <c r="K31" s="5">
+      <c r="H31" s="3">
+        <v>10.9877407669661</v>
+      </c>
+      <c r="I31" s="3">
+        <v>29.255993104718254</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.10640683954152191</v>
+      </c>
+      <c r="K31" s="3">
         <v>16.019362847405624</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="3">
         <v>20.856670000000001</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="4">
         <v>-12.998878989743478</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>39721</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="3">
         <v>14.095194559470443</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>1.2066666666666666</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <v>12.093333333333334</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="3">
         <v>2000.5722267971771</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="4">
         <v>30.404196390288352</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="3">
         <v>7.2398110537295519</v>
       </c>
-      <c r="H32" s="5">
-        <v>2.1282272129223641</v>
-      </c>
-      <c r="I32" s="5">
-        <v>33.881759561290252</v>
-      </c>
-      <c r="J32" s="5">
-        <v>9.0545018169002169</v>
-      </c>
-      <c r="K32" s="5">
+      <c r="H32" s="3">
+        <v>9.0272856078804793</v>
+      </c>
+      <c r="I32" s="3">
+        <v>24.306477031145484</v>
+      </c>
+      <c r="J32" s="3">
+        <v>8.9088775081270014E-2</v>
+      </c>
+      <c r="K32" s="3">
         <v>16.561154073920655</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="3">
         <v>27.66</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="4">
         <v>-31.805231217954599</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>39813</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>13.527540610512846</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>1.24</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <v>11.826666666666666</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="3">
         <v>2025.6141950691947</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="4">
         <v>46.415183451233851</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="3">
         <v>7.1256576367119919</v>
       </c>
-      <c r="H33" s="5">
-        <v>2.060673882600232</v>
-      </c>
-      <c r="I33" s="5">
-        <v>-12.10188273372477</v>
-      </c>
-      <c r="J33" s="5">
-        <v>9.3841750767664038</v>
-      </c>
-      <c r="K33" s="5">
+      <c r="H33" s="3">
+        <v>5.2720638329046681</v>
+      </c>
+      <c r="I33" s="3">
+        <v>11.618319122454141</v>
+      </c>
+      <c r="J33" s="3">
+        <v>5.8303959458098548E-2</v>
+      </c>
+      <c r="K33" s="3">
         <v>15.665083019472551</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="3">
         <v>51.723329999999997</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="4">
         <v>-55.949190922025061</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>39903</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>13.993388467138951</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>1.3933333333333333</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>12.263333333333334</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="3">
         <v>2046.1401854151727</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="4">
         <v>12.68094452140171</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="3">
         <v>1.7148507990984723</v>
       </c>
-      <c r="H34" s="5">
-        <v>2.2126802985645222</v>
-      </c>
-      <c r="I34" s="5">
-        <v>-0.18121180060664252</v>
-      </c>
-      <c r="J34" s="5">
-        <v>8.3707216235568023</v>
-      </c>
-      <c r="K34" s="5">
+      <c r="H34" s="3">
+        <v>4.1531218204950298</v>
+      </c>
+      <c r="I34" s="3">
+        <v>3.4912425996573648</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2.2325446164116813E-2</v>
+      </c>
+      <c r="K34" s="3">
         <v>13.616026666974479</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="3">
         <v>45.11</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="4">
         <v>10.70221358202396</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>39994</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>15.048828986847827</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>1.5733333333333335</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>12.9</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="3">
         <v>2035.5489144615658</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="4">
         <v>-11.880567762986654</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="3">
         <v>-0.49438515440050301</v>
       </c>
-      <c r="H35" s="5">
-        <v>3.1273218904874507</v>
-      </c>
-      <c r="I35" s="5">
-        <v>11.501238363332428</v>
-      </c>
-      <c r="J35" s="5">
-        <v>8.1925972128101758</v>
-      </c>
-      <c r="K35" s="5">
+      <c r="H35" s="3">
+        <v>0.69488456615863203</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-11.240745247320106</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3.4005457637554803E-3</v>
+      </c>
+      <c r="K35" s="3">
         <v>10.719858040104508</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="3">
         <v>30.59</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="4">
         <v>24.22643048596219</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>40086</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>16.311921583732506</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>1.6366666666666667</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>13.633333333333333</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <v>2041.8516756471909</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="4">
         <v>1.7946667139382748</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <v>-0.78000963551295288</v>
       </c>
-      <c r="H36" s="5">
-        <v>4.237207046598666</v>
-      </c>
-      <c r="I36" s="5">
-        <v>-1.1724410336056448</v>
-      </c>
-      <c r="J36" s="5">
-        <v>11.546534530759409</v>
-      </c>
-      <c r="K36" s="5">
+      <c r="H36" s="3">
+        <v>2.3424756904396533</v>
+      </c>
+      <c r="I36" s="3">
+        <v>-5.1806010964812321</v>
+      </c>
+      <c r="J36" s="3">
+        <v>-8.4149261983128255E-4</v>
+      </c>
+      <c r="K36" s="3">
         <v>9.8424252235614897</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="3">
         <v>25.84667</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="4">
         <v>24.54283621940986</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>40178</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>16.801090778328799</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>1.6033333333333335</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>13.49</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="3">
         <v>2042.8510169335616</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="4">
         <v>6.4551404750625485</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="3">
         <v>1.2368101179125315</v>
       </c>
-      <c r="H37" s="5">
-        <v>4.8780932603493126</v>
-      </c>
-      <c r="I37" s="5">
-        <v>22.639532096972182</v>
-      </c>
-      <c r="J37" s="5">
-        <v>9.3533883336296046</v>
-      </c>
-      <c r="K37" s="5">
+      <c r="H37" s="3">
+        <v>5.3983120941424731</v>
+      </c>
+      <c r="I37" s="3">
+        <v>6.585740633669551</v>
+      </c>
+      <c r="J37" s="3">
+        <v>2.5387426310407055E-2</v>
+      </c>
+      <c r="K37" s="3">
         <v>11.391453378698662</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="3">
         <v>25.626670000000001</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="4">
         <v>39.423194279826824</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>40268</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>16.564384607772002</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>1.6866666666666668</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>13.686666666666667</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="3">
         <v>2072.1378218055211</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="4">
         <v>9.9770848092588871</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="3">
         <v>2.754287671541221</v>
       </c>
-      <c r="H38" s="5">
-        <v>4.6814698714173222</v>
-      </c>
-      <c r="I38" s="5">
-        <v>19.469995642799997</v>
-      </c>
-      <c r="J38" s="5">
-        <v>9.6202030516254151</v>
-      </c>
-      <c r="K38" s="5">
+      <c r="H38" s="3">
+        <v>7.0758282001139357</v>
+      </c>
+      <c r="I38" s="3">
+        <v>15.003901387440644</v>
+      </c>
+      <c r="J38" s="3">
+        <v>5.4781944951868326E-2</v>
+      </c>
+      <c r="K38" s="3">
         <v>17.845188094753002</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="3">
         <v>20.57</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="4">
         <v>14.357382910622224</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>40359</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <v>16.335322774227237</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <v>1.7133333333333332</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <v>14.133333333333333</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="3">
         <v>2055.2147589731026</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="4">
         <v>20.806143428286244</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="3">
         <v>1.3655306540468601</v>
       </c>
-      <c r="H39" s="5">
-        <v>3.9129606927412568</v>
-      </c>
-      <c r="I39" s="5">
-        <v>2.7032372333459618</v>
-      </c>
-      <c r="J39" s="5">
-        <v>8.2254025943902498</v>
-      </c>
-      <c r="K39" s="5">
+      <c r="H39" s="3">
+        <v>8.3335485041690891</v>
+      </c>
+      <c r="I39" s="3">
+        <v>27.918788788911819</v>
+      </c>
+      <c r="J39" s="3">
+        <v>9.4262494874061534E-2</v>
+      </c>
+      <c r="K39" s="3">
         <v>17.358749733352045</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="3">
         <v>29.553329999999999</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39" s="4">
         <v>12.451280629954901</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>40451</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="3">
         <v>16.225115377255424</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="3">
         <v>1.7333333333333334</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="3">
         <v>13.89</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="3">
         <v>2049.8397649559702</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="4">
         <v>9.5411308168937037</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="3">
         <v>3.1648898518946824</v>
       </c>
-      <c r="H40" s="5">
-        <v>3.6551255103594178</v>
-      </c>
-      <c r="I40" s="5">
-        <v>-9.3222909604966464</v>
-      </c>
-      <c r="J40" s="5">
-        <v>7.4921821865267209</v>
-      </c>
-      <c r="K40" s="5">
+      <c r="H40" s="3">
+        <v>9.6723058171586711</v>
+      </c>
+      <c r="I40" s="3">
+        <v>23.449202232545005</v>
+      </c>
+      <c r="J40" s="3">
+        <v>9.5703482821976563E-2</v>
+      </c>
+      <c r="K40" s="3">
         <v>21.97005217582366</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="3">
         <v>24.41667</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M40" s="4">
         <v>1.2569525496928458</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>40543</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="3">
         <v>16.041448638052458</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="3">
         <v>1.57</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="3">
         <v>13.770000000000001</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="3">
         <v>2084.3197002151851</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="4">
         <v>11.678839782683891</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="3">
         <v>1.1423598619201718</v>
       </c>
-      <c r="H41" s="5">
-        <v>3.7787927757874775</v>
-      </c>
-      <c r="I41" s="5">
-        <v>-8.1179913456335164</v>
-      </c>
-      <c r="J41" s="5">
-        <v>7.6268736476452554</v>
-      </c>
-      <c r="K41" s="5">
+      <c r="H41" s="3">
+        <v>9.4786100169805945</v>
+      </c>
+      <c r="I41" s="3">
+        <v>17.175136880345619</v>
+      </c>
+      <c r="J41" s="3">
+        <v>8.6886689146045179E-2</v>
+      </c>
+      <c r="K41" s="3">
         <v>22.479945354478478</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="3">
         <v>20.83</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="4">
         <v>23.709837130097249</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>40633</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="3">
         <v>15.809429658551135</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="3">
         <v>1.53</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="3">
         <v>13.726666666666667</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="3">
         <v>2064.9944646009349</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="4">
         <v>19.101680061250175</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="3">
         <v>3.6785759329264223</v>
       </c>
-      <c r="H42" s="5">
-        <v>4.0564897167083895</v>
-      </c>
-      <c r="I42" s="5">
-        <v>-6.3160355150775613</v>
-      </c>
-      <c r="J42" s="5">
-        <v>7.1925709102923054</v>
-      </c>
-      <c r="K42" s="5">
+      <c r="H42" s="3">
+        <v>8.5843749648754422</v>
+      </c>
+      <c r="I42" s="3">
+        <v>9.3995229547147794</v>
+      </c>
+      <c r="J42" s="3">
+        <v>8.2193654185382034E-2</v>
+      </c>
+      <c r="K42" s="3">
         <v>22.119248991442849</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="3">
         <v>18.54</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="4">
         <v>14.220459699525598</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+      <c r="A43" s="2">
         <v>40724</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="3">
         <v>15.07768606433541</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="3">
         <v>1.51</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="3">
         <v>13.693333333333333</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="3">
         <v>2082.3981815775282</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="4">
         <v>31.740423529020667</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="3">
         <v>4.2611528182332163</v>
       </c>
-      <c r="H43" s="5">
-        <v>4.0728907107273802</v>
-      </c>
-      <c r="I43" s="5">
-        <v>14.605097507852072</v>
-      </c>
-      <c r="J43" s="5">
-        <v>7.0266200858842573</v>
-      </c>
-      <c r="K43" s="5">
+      <c r="H43" s="3">
+        <v>7.9703710488153234</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3.1794276313108161</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5.571516607306494E-2</v>
+      </c>
+      <c r="K43" s="3">
         <v>20.909684649719164</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="3">
         <v>15.57333</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43" s="4">
         <v>-1.2334157706538322</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>40816</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="3">
         <v>15.798193993610996</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="3">
         <v>1.55</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="3">
         <v>13.493333333333334</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="3">
         <v>2099.1478515076597</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="4">
         <v>14.368953634151854</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="3">
         <v>4.5566123140007884</v>
       </c>
-      <c r="H44" s="5">
-        <v>3.5019588770254169</v>
-      </c>
-      <c r="I44" s="5">
-        <v>-11.078068987568743</v>
-      </c>
-      <c r="J44" s="5">
-        <v>6.9964220906631072</v>
-      </c>
-      <c r="K44" s="5">
+      <c r="H44" s="3">
+        <v>6.0998192322344957</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2.961406674735227</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5.6383356263401095E-2</v>
+      </c>
+      <c r="K44" s="3">
         <v>21.562995396688329</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="3">
         <v>33.276670000000003</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44" s="4">
         <v>4.5400352328403626</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+      <c r="A45" s="2">
         <v>40908</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="3">
         <v>16.697748393526545</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="3">
         <v>1.5199999999999998</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="3">
         <v>13.549999999999999</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="3">
         <v>2080.2895031228877</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="4">
         <v>12.763676652822053</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="3">
         <v>5.1793358924186164</v>
       </c>
-      <c r="H45" s="5">
-        <v>2.4741789976195854</v>
-      </c>
-      <c r="I45" s="5">
-        <v>1.5064226987851517</v>
-      </c>
-      <c r="J45" s="5">
-        <v>8.253980637043016</v>
-      </c>
-      <c r="K45" s="5">
+      <c r="H45" s="3">
+        <v>5.7678556692269698</v>
+      </c>
+      <c r="I45" s="3">
+        <v>8.341896501355162</v>
+      </c>
+      <c r="J45" s="3">
+        <v>6.0022569874669397E-2</v>
+      </c>
+      <c r="K45" s="3">
         <v>18.041057183236255</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="3">
         <v>27.053329999999999</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45" s="4">
         <v>-24.845496843039694</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+      <c r="A46" s="2">
         <v>40999</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="3">
         <v>16.468134912551708</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="3">
         <v>1.5866666666666667</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="3">
         <v>13.743333333333332</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="3">
         <v>2083.6103020363844</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="4">
         <v>12.834233282155976</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="3">
         <v>2.3053699466146136</v>
       </c>
-      <c r="H46" s="5">
-        <v>1.8203687965875002</v>
-      </c>
-      <c r="I46" s="5">
-        <v>-6.2222775613892907</v>
-      </c>
-      <c r="J46" s="5">
-        <v>7.8909120396215249</v>
-      </c>
-      <c r="K46" s="5">
+      <c r="H46" s="3">
+        <v>6.9861763720890853</v>
+      </c>
+      <c r="I46" s="3">
+        <v>15.822837151638947</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5.9754282122761668E-2</v>
+      </c>
+      <c r="K46" s="3">
         <v>20.646035620431725</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="3">
         <v>17.79</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M46" s="4">
         <v>13.276484849768686</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="A47" s="2">
         <v>41090</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="3">
         <v>15.859394448364691</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="3">
         <v>1.72</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="3">
         <v>14.670000000000002</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="3">
         <v>2081.0981292150141</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="4">
         <v>15.693805478066228</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="3">
         <v>3.9490954126259412</v>
       </c>
-      <c r="H47" s="5">
-        <v>1.75566738128436</v>
-      </c>
-      <c r="I47" s="5">
-        <v>-20.818868043519867</v>
-      </c>
-      <c r="J47" s="5">
-        <v>7.3575460091276232</v>
-      </c>
-      <c r="K47" s="5">
+      <c r="H47" s="3">
+        <v>6.3812052182638537</v>
+      </c>
+      <c r="I47" s="3">
+        <v>16.058886644908867</v>
+      </c>
+      <c r="J47" s="3">
+        <v>6.3457449821347531E-2</v>
+      </c>
+      <c r="K47" s="3">
         <v>22.730622970503504</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="3">
         <v>19.43</v>
       </c>
-      <c r="M47" s="6">
+      <c r="M47" s="4">
         <v>-12.437958246107913</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+      <c r="A48" s="2">
         <v>41182</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="3">
         <v>16.428629689272729</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="3">
         <v>1.7299999999999998</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="3">
         <v>13.813333333333333</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="3">
         <v>2084.1940561202487</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="4">
         <v>13.072266446269593</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="3">
         <v>2.3602844378190291</v>
       </c>
-      <c r="H48" s="5">
-        <v>1.5726733733683484</v>
-      </c>
-      <c r="I48" s="5">
-        <v>21.276186649553992</v>
-      </c>
-      <c r="J48" s="5">
-        <v>7.0775034117680606</v>
-      </c>
-      <c r="K48" s="5">
+      <c r="H48" s="3">
+        <v>6.9849861412578926</v>
+      </c>
+      <c r="I48" s="3">
+        <v>15.704708081855511</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6.8146594614250613E-2</v>
+      </c>
+      <c r="K48" s="3">
         <v>23.122569711183168</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="3">
         <v>17.376670000000001</v>
       </c>
-      <c r="M48" s="6">
+      <c r="M48" s="4">
         <v>-2.6358668192420844</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+      <c r="A49" s="2">
         <v>41274</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="3">
         <v>16.515625140259804</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="3">
         <v>1.7766666666666666</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="3">
         <v>13.713333333333333</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="3">
         <v>2087.6969666533423</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="4">
         <v>9.019957222193991</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="3">
         <v>2.6349888842566602</v>
       </c>
-      <c r="H49" s="5">
-        <v>1.1831906190904795</v>
-      </c>
-      <c r="I49" s="5">
-        <v>8.6875979256090741</v>
-      </c>
-      <c r="J49" s="5">
-        <v>7.7553950085031937</v>
-      </c>
-      <c r="K49" s="5">
+      <c r="H49" s="3">
+        <v>7.3772332187182625</v>
+      </c>
+      <c r="I49" s="3">
+        <v>13.54645502606491</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5.3107160014391946E-2</v>
+      </c>
+      <c r="K49" s="3">
         <v>25.000001867023041</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="3">
         <v>17.496670000000002</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M49" s="4">
         <v>9.5500036556034704</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+      <c r="A50" s="2">
         <v>41364</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="3">
         <v>16.010643306091456</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="3">
         <v>1.93</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="3">
         <v>14.21</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="3">
         <v>2079.2593466581961</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="4">
         <v>9.1925835419352904</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="3">
         <v>1.6707867575845965</v>
       </c>
-      <c r="H50" s="5">
-        <v>0.93028732030134775</v>
-      </c>
-      <c r="I50" s="5">
-        <v>2.8873808419980209</v>
-      </c>
-      <c r="J50" s="5">
-        <v>7.4046953069546513</v>
-      </c>
-      <c r="K50" s="5">
+      <c r="H50" s="3">
+        <v>5.7551188182284463</v>
+      </c>
+      <c r="I50" s="3">
+        <v>11.619577202320936</v>
+      </c>
+      <c r="J50" s="3">
+        <v>5.7501689324306458E-2</v>
+      </c>
+      <c r="K50" s="3">
         <v>26.856904669472264</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="3">
         <v>14.16333</v>
       </c>
-      <c r="M50" s="6">
+      <c r="M50" s="4">
         <v>-0.48140995393399605</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+      <c r="A51" s="2">
         <v>41455</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="3">
         <v>15.410792453107478</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="3">
         <v>2.0733333333333337</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="3">
         <v>14.523333333333333</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="3">
         <v>2066.8071684739029</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="4">
         <v>21.903331899040666</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="3">
         <v>3.2820495789716535</v>
       </c>
-      <c r="H51" s="5">
-        <v>0.4769036904925813</v>
-      </c>
-      <c r="I51" s="5">
-        <v>7.7509044684922017</v>
-      </c>
-      <c r="J51" s="5">
-        <v>6.9882570345982202</v>
-      </c>
-      <c r="K51" s="5">
+      <c r="H51" s="3">
+        <v>5.9831504096523149</v>
+      </c>
+      <c r="I51" s="3">
+        <v>11.929130403472273</v>
+      </c>
+      <c r="J51" s="3">
+        <v>5.8683820613681263E-2</v>
+      </c>
+      <c r="K51" s="3">
         <v>23.908500219438444</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51" s="3">
         <v>15.56</v>
       </c>
-      <c r="M51" s="6">
+      <c r="M51" s="4">
         <v>-29.734164485496233</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+      <c r="A52" s="2">
         <v>41547</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="3">
         <v>15.56996530954452</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="3">
         <v>2.1133333333333333</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="3">
         <v>13.963333333333333</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="3">
         <v>2075.7140556952404</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="4">
         <v>23.500606801918426</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="3">
         <v>4.6729134457620347</v>
       </c>
-      <c r="H52" s="5">
-        <v>0.45648404151038163</v>
-      </c>
-      <c r="I52" s="5">
-        <v>3.0143740287519156</v>
-      </c>
-      <c r="J52" s="5">
-        <v>8.6344713874618915</v>
-      </c>
-      <c r="K52" s="5">
+      <c r="H52" s="3">
+        <v>5.5971457475318314</v>
+      </c>
+      <c r="I52" s="3">
+        <v>7.0724625293096715</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5.2586914957070741E-2</v>
+      </c>
+      <c r="K52" s="3">
         <v>22.261433138145257</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="3">
         <v>15.686669999999999</v>
       </c>
-      <c r="M52" s="6">
+      <c r="M52" s="4">
         <v>-7.5055317645659398</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+      <c r="A53" s="2">
         <v>41639</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="3">
         <v>16.204760668394659</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="3">
         <v>2.1633333333333336</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="3">
         <v>13.676666666666668</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="3">
         <v>2076.8616726486803</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="4">
         <v>16.04947023565061</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="3">
         <v>2.0091468449198886</v>
       </c>
-      <c r="H53" s="5">
-        <v>0.51150082825485321</v>
-      </c>
-      <c r="I53" s="5">
-        <v>2.1228134067604145</v>
-      </c>
-      <c r="J53" s="5">
-        <v>9.271841812674591</v>
-      </c>
-      <c r="K53" s="5">
+      <c r="H53" s="3">
+        <v>5.2362844398170871</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1.1888575907477503</v>
+      </c>
+      <c r="J53" s="3">
+        <v>6.407691744692337E-2</v>
+      </c>
+      <c r="K53" s="3">
         <v>19.87090655637148</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53" s="3">
         <v>13.723330000000001</v>
       </c>
-      <c r="M53" s="6">
+      <c r="M53" s="4">
         <v>-4.5775670298808686</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+      <c r="A54" s="2">
         <v>41729</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="3">
         <v>16.066991429102863</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="3">
         <v>2.3066666666666666</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="3">
         <v>14.016666666666666</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="3">
         <v>2073.6687250313139</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="4">
         <v>10.439171840403546</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="3">
         <v>3.4266145960953938</v>
       </c>
-      <c r="H54" s="5">
-        <v>0.54055564743380413</v>
-      </c>
-      <c r="I54" s="5">
-        <v>10.017562275378447</v>
-      </c>
-      <c r="J54" s="5">
-        <v>8.2873801027934579</v>
-      </c>
-      <c r="K54" s="5">
+      <c r="H54" s="3">
+        <v>4.8575459260325067</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.23331053775240621</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4.1802491028743852E-2</v>
+      </c>
+      <c r="K54" s="3">
         <v>19.391951283504977</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54" s="3">
         <v>15.43</v>
       </c>
-      <c r="M54" s="6">
+      <c r="M54" s="4">
         <v>-3.902091627652938</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+      <c r="A55" s="2">
         <v>41820</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="3">
         <v>16.254513236151251</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="3">
         <v>2.3933333333333331</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="3">
         <v>14.37</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="3">
         <v>2068.4339189684792</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="4">
         <v>13.490163525870184</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="3">
         <v>3.7024758700314901</v>
       </c>
-      <c r="H55" s="5">
-        <v>0.83091600317751224</v>
-      </c>
-      <c r="I55" s="5">
-        <v>11.038299621003622</v>
-      </c>
-      <c r="J55" s="5">
-        <v>7.7338184691652936</v>
-      </c>
-      <c r="K55" s="5">
+      <c r="H55" s="3">
+        <v>4.152824064117727</v>
+      </c>
+      <c r="I55" s="3">
+        <v>-2.2726921567948968</v>
+      </c>
+      <c r="J55" s="3">
+        <v>2.8983388903439107E-2</v>
+      </c>
+      <c r="K55" s="3">
         <v>18.844485369191844</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L55" s="3">
         <v>12.126670000000001</v>
       </c>
-      <c r="M55" s="6">
+      <c r="M55" s="4">
         <v>-10.459454727133245</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+      <c r="A56" s="2">
         <v>41912</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="3">
         <v>16.590771429567742</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="3">
         <v>2.436666666666667</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="3">
         <v>14.153333333333334</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="3">
         <v>2076.3853018355207</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="4">
         <v>12.741404673891063</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="3">
         <v>2.3664085564659807</v>
       </c>
-      <c r="H56" s="5">
-        <v>1.2575222834321922</v>
-      </c>
-      <c r="I56" s="5">
-        <v>-8.1381057533813888</v>
-      </c>
-      <c r="J56" s="5">
-        <v>7.3714852406068836</v>
-      </c>
-      <c r="K56" s="5">
+      <c r="H56" s="3">
+        <v>3.6238758286455086</v>
+      </c>
+      <c r="I56" s="3">
+        <v>-3.9088460603711015</v>
+      </c>
+      <c r="J56" s="3">
+        <v>2.0684725622669108E-2</v>
+      </c>
+      <c r="K56" s="3">
         <v>20.184738670742238</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="3">
         <v>15.116669999999999</v>
       </c>
-      <c r="M56" s="6">
+      <c r="M56" s="4">
         <v>11.217102848535269</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+      <c r="A57" s="2">
         <v>42004</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="3">
         <v>16.979629435304435</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="3">
         <v>2.4666666666666668</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="3">
         <v>14.363333333333332</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="3">
         <v>2084.6257123748851</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="4">
         <v>14.480372843950621</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="3">
         <v>2.931675982821786</v>
       </c>
-      <c r="H57" s="5">
-        <v>1.5356621351373985</v>
-      </c>
-      <c r="I57" s="5">
-        <v>11.148615465274153</v>
-      </c>
-      <c r="J57" s="5">
-        <v>7.1860237001921519</v>
-      </c>
-      <c r="K57" s="5">
+      <c r="H57" s="3">
+        <v>3.0631796740400965</v>
+      </c>
+      <c r="I57" s="3">
+        <v>-2.9423564980317511</v>
+      </c>
+      <c r="J57" s="3">
+        <v>8.5549358162577988E-3</v>
+      </c>
+      <c r="K57" s="3">
         <v>20.591387531778555</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L57" s="3">
         <v>15.52</v>
       </c>
-      <c r="M57" s="6">
+      <c r="M57" s="4">
         <v>-4.5469768410048603</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+      <c r="A58" s="2">
         <v>42094</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="3">
         <v>16.487591870468101</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="3">
         <v>2.5666666666666669</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="3">
         <v>14.146666666666667</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="3">
         <v>2071.4658116789765</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="4">
         <v>14.053782972649659</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="3">
         <v>2.6260599468133172</v>
       </c>
-      <c r="H58" s="5">
-        <v>2.0210636926189789</v>
-      </c>
-      <c r="I58" s="5">
-        <v>-5.5276308992013075</v>
-      </c>
-      <c r="J58" s="5">
-        <v>7.9591234088123031</v>
-      </c>
-      <c r="K58" s="5">
+      <c r="H58" s="3">
+        <v>3.539430852862508</v>
+      </c>
+      <c r="I58" s="3">
+        <v>-6.9431796018123757</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1.8024061346714793E-2</v>
+      </c>
+      <c r="K58" s="3">
         <v>21.285769740714784</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L58" s="3">
         <v>16.533329999999999</v>
       </c>
-      <c r="M58" s="6">
+      <c r="M58" s="4">
         <v>-16.101497546647128</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
+      <c r="A59" s="2">
         <v>42185</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="3">
         <v>16.198195610224147</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="3">
         <v>2.6533333333333329</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="3">
         <v>14.353333333333333</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="3">
         <v>2043.1236001432251</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="4">
         <v>18.773489457682182</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="3">
         <v>5.1245092824955396</v>
       </c>
-      <c r="H59" s="5">
-        <v>2.0591880312922859</v>
-      </c>
-      <c r="I59" s="5">
-        <v>-3.827464580483507</v>
-      </c>
-      <c r="J59" s="5">
-        <v>8.6057479716214775</v>
-      </c>
-      <c r="K59" s="5">
+      <c r="H59" s="3">
+        <v>3.760624835701893</v>
+      </c>
+      <c r="I59" s="3">
+        <v>-8.5452078975509433</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3.3289563344114932E-2</v>
+      </c>
+      <c r="K59" s="3">
         <v>20.267813119470858</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59" s="3">
         <v>15.54</v>
       </c>
-      <c r="M59" s="6">
+      <c r="M59" s="4">
         <v>-2.3593600995966191</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+      <c r="A60" s="2">
         <v>42277</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="3">
         <v>16.0663317841638</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="3">
         <v>2.67</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="3">
         <v>14.316666666666668</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="3">
         <v>2045.9536166985599</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="4">
         <v>13.664491395927566</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="3">
         <v>4.3904652963162452</v>
       </c>
-      <c r="H60" s="5">
-        <v>1.8572736471868005</v>
-      </c>
-      <c r="I60" s="5">
-        <v>3.4900274886923941</v>
-      </c>
-      <c r="J60" s="5">
-        <v>8.3112922522461297</v>
-      </c>
-      <c r="K60" s="5">
+      <c r="H60" s="3">
+        <v>3.8659487236581995</v>
+      </c>
+      <c r="I60" s="3">
+        <v>-4.2942370181374274</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3.1669852554262988E-2</v>
+      </c>
+      <c r="K60" s="3">
         <v>20.458997148237867</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60" s="3">
         <v>21.683330000000002</v>
       </c>
-      <c r="M60" s="6">
+      <c r="M60" s="4">
         <v>-19.396241644676714</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+      <c r="A61" s="2">
         <v>42369</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="3">
         <v>16.067725497370276</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="3">
         <v>2.6033333333333331</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="3">
         <v>14.173333333333334</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="3">
         <v>2036.8277360462005</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="4">
         <v>14.850415327231294</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="3">
         <v>3.8274479492279148</v>
       </c>
-      <c r="H61" s="5">
-        <v>1.6898817117513947</v>
-      </c>
-      <c r="I61" s="5">
-        <v>2.5978044969382479</v>
-      </c>
-      <c r="J61" s="5">
-        <v>7.6591000102099578</v>
-      </c>
-      <c r="K61" s="5">
+      <c r="H61" s="3">
+        <v>4.0942489664903654</v>
+      </c>
+      <c r="I61" s="3">
+        <v>-0.93102082312089551</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4.5713964267243425E-2</v>
+      </c>
+      <c r="K61" s="3">
         <v>20.786570406609115</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L61" s="3">
         <v>16.47</v>
       </c>
-      <c r="M61" s="6">
+      <c r="M61" s="4">
         <v>-2.4617597155812176</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+      <c r="A62" s="2">
         <v>42460</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="3">
         <v>16.19930901408091</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="3">
         <v>2.6833333333333336</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="3">
         <v>14.256666666666668</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="3">
         <v>2049.3084721720134</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="4">
         <v>6.0343592400119848</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="3">
         <v>3.9008825046401263</v>
       </c>
-      <c r="H62" s="5">
-        <v>1.2392753827260199</v>
-      </c>
-      <c r="I62" s="5">
-        <v>-1.1221414587382457</v>
-      </c>
-      <c r="J62" s="5">
-        <v>8.0173644276679408</v>
-      </c>
-      <c r="K62" s="5">
+      <c r="H62" s="3">
+        <v>3.9971278397478458</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0.5096397961953848</v>
+      </c>
+      <c r="J62" s="3">
+        <v>5.20636571629952E-2</v>
+      </c>
+      <c r="K62" s="3">
         <v>19.288909562770009</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L62" s="3">
         <v>18.233329999999999</v>
       </c>
-      <c r="M62" s="6">
+      <c r="M62" s="4">
         <v>-4.0551035433244778</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+      <c r="A63" s="2">
         <v>42551</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="3">
         <v>16.61882933351005</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="3">
         <v>2.8333333333333335</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="3">
         <v>14.920000000000002</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="3">
         <v>2033.8609156897558</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="4">
         <v>0.30764812817857135</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="3">
         <v>2.0370477404493914</v>
       </c>
-      <c r="H63" s="5">
-        <v>1.4334453998833514</v>
-      </c>
-      <c r="I63" s="5">
-        <v>-6.7266227457368473</v>
-      </c>
-      <c r="J63" s="5">
-        <v>8.3660821207911855</v>
-      </c>
-      <c r="K63" s="5">
+      <c r="H63" s="3">
+        <v>3.5025463557170906</v>
+      </c>
+      <c r="I63" s="3">
+        <v>-2.3780277631348965</v>
+      </c>
+      <c r="J63" s="3">
+        <v>3.0846266643156733E-2</v>
+      </c>
+      <c r="K63" s="3">
         <v>18.019783483948142</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L63" s="3">
         <v>15.17333</v>
       </c>
-      <c r="M63" s="6">
+      <c r="M63" s="4">
         <v>7.6549872913327031</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+      <c r="A64" s="2">
         <v>42643</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="3">
         <v>17.27039567472826</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="3">
         <v>2.8733333333333331</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="3">
         <v>15.166666666666666</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="3">
         <v>2015.0807299376975</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="4">
         <v>7.3938224807754818</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="3">
         <v>2.1105441131515841</v>
       </c>
-      <c r="H64" s="5">
-        <v>1.4333068565801133</v>
-      </c>
-      <c r="I64" s="5">
-        <v>-8.7029150482070019</v>
-      </c>
-      <c r="J64" s="5">
-        <v>10.395353701325099</v>
-      </c>
-      <c r="K64" s="5">
+      <c r="H64" s="3">
+        <v>3.7027483766499012</v>
+      </c>
+      <c r="I64" s="3">
+        <v>-6.2881493409400315</v>
+      </c>
+      <c r="J64" s="3">
+        <v>4.4295229017501471E-2</v>
+      </c>
+      <c r="K64" s="3">
         <v>17.743855832242968</v>
       </c>
-      <c r="L64" s="5">
+      <c r="L64" s="3">
         <v>12.86</v>
       </c>
-      <c r="M64" s="6">
+      <c r="M64" s="4">
         <v>13.446872045519051</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+      <c r="A65" s="2">
         <v>42735</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="3">
         <v>18.179656662986396</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="3">
         <v>2.9033333333333338</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="3">
         <v>15.113333333333332</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="3">
         <v>2020.0175213618611</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="4">
         <v>2.7803376669849582</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="3">
         <v>5.0483174423485364</v>
       </c>
-      <c r="H65" s="5">
-        <v>1.4545276855730851</v>
-      </c>
-      <c r="I65" s="5">
-        <v>-17.782072713197604</v>
-      </c>
-      <c r="J65" s="5">
-        <v>9.1317364150985654</v>
-      </c>
-      <c r="K65" s="5">
+      <c r="H65" s="3">
+        <v>3.2440310344462078</v>
+      </c>
+      <c r="I65" s="3">
+        <v>-7.3066091573290857</v>
+      </c>
+      <c r="J65" s="3">
+        <v>3.13903087628912E-2</v>
+      </c>
+      <c r="K65" s="3">
         <v>15.536045790945444</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L65" s="3">
         <v>14.81</v>
       </c>
-      <c r="M65" s="6">
+      <c r="M65" s="4">
         <v>10.287764625841312</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+      <c r="A66" s="2">
         <v>42825</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="3">
         <v>18.601301275762086</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="3">
         <v>2.9833333333333329</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="3">
         <v>15.363333333333335</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="3">
         <v>2013.073766114846</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="4">
         <v>-3.6129182617309232</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="3">
         <v>4.4985698102296547</v>
       </c>
-      <c r="H66" s="5">
-        <v>1.0811315133981867</v>
-      </c>
-      <c r="I66" s="5">
-        <v>-3.3062728271172457</v>
-      </c>
-      <c r="J66" s="5">
-        <v>7.944289649703542</v>
-      </c>
-      <c r="K66" s="5">
+      <c r="H66" s="3">
+        <v>2.6320527828212041</v>
+      </c>
+      <c r="I66" s="3">
+        <v>-7.3753294952063522</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1.783880884627136E-2</v>
+      </c>
+      <c r="K66" s="3">
         <v>12.620540351869181</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66" s="3">
         <v>12.42667</v>
       </c>
-      <c r="M66" s="6">
+      <c r="M66" s="4">
         <v>4.482640237706606E-2</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+      <c r="A67" s="2">
         <v>42916</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="3">
         <v>18.452474534142187</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="3">
         <v>3.1</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="3">
         <v>15.839999999999998</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="3">
         <v>1987.845627153137</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="4">
         <v>1.5105048027026149</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="3">
         <v>0.78124928434364393</v>
       </c>
-      <c r="H67" s="5">
-        <v>1.0855210733369995</v>
-      </c>
-      <c r="I67" s="5">
-        <v>2.6880169692083724</v>
-      </c>
-      <c r="J67" s="5">
-        <v>9.6148627039850805</v>
-      </c>
-      <c r="K67" s="5">
+      <c r="H67" s="3">
+        <v>2.6021642275304315</v>
+      </c>
+      <c r="I67" s="3">
+        <v>-4.2297138925834163</v>
+      </c>
+      <c r="J67" s="3">
+        <v>3.0956157845411243E-2</v>
+      </c>
+      <c r="K67" s="3">
         <v>12.450585594087551</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L67" s="3">
         <v>10.803330000000001</v>
       </c>
-      <c r="M67" s="6">
+      <c r="M67" s="4">
         <v>-3.8045097478281686</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+      <c r="A68" s="2">
         <v>43008</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="3">
         <v>19.19993192166752</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="3">
         <v>3.1033333333333335</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="3">
         <v>15.9</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="3">
         <v>1983.5121666662453</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="4">
         <v>5.3282512425543525</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="3">
         <v>1.4360580169433939</v>
       </c>
-      <c r="H68" s="5">
-        <v>1.0965803510219347</v>
-      </c>
-      <c r="I68" s="5">
-        <v>4.7463989865961249</v>
-      </c>
-      <c r="J68" s="5">
-        <v>8.2159527418654399</v>
-      </c>
-      <c r="K68" s="5">
+      <c r="H68" s="3">
+        <v>2.8213248343249879</v>
+      </c>
+      <c r="I68" s="3">
+        <v>4.7830720009121332</v>
+      </c>
+      <c r="J68" s="3">
+        <v>2.8305779122731838E-2</v>
+      </c>
+      <c r="K68" s="3">
         <v>14.53214256552643</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L68" s="3">
         <v>10.119999999999999</v>
       </c>
-      <c r="M68" s="6">
+      <c r="M68" s="4">
         <v>20.262856978143837</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+      <c r="A69" s="2">
         <v>43100</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="3">
         <v>19.636494106931188</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="3">
         <v>3.1</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="3">
         <v>15.363333333333335</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="3">
         <v>2005.0757543771213</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="4">
         <v>9.1709378738027709</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="3">
         <v>-0.16718358170930722</v>
       </c>
-      <c r="H69" s="5">
-        <v>1.1199905876733263</v>
-      </c>
-      <c r="I69" s="5">
-        <v>6.8386003491696474</v>
-      </c>
-      <c r="J69" s="5">
-        <v>7.5132100807929358</v>
-      </c>
-      <c r="K69" s="5">
+      <c r="H69" s="3">
+        <v>2.8119988373600355</v>
+      </c>
+      <c r="I69" s="3">
+        <v>3.8806081459395263</v>
+      </c>
+      <c r="J69" s="3">
+        <v>2.3488399926196495E-2</v>
+      </c>
+      <c r="K69" s="3">
         <v>13.849011521583741</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L69" s="3">
         <v>10.83333</v>
       </c>
-      <c r="M69" s="6">
+      <c r="M69" s="4">
         <v>20.709169924652947</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+      <c r="A70" s="2">
         <v>43190</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="3">
         <v>19.737150978147255</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="3">
         <v>3.1433333333333331</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="3">
         <v>15.373333333333333</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="3">
         <v>2014.1491810931366</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70" s="4">
         <v>5.9436248077720855</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="3">
         <v>1.6725040611058044</v>
       </c>
-      <c r="H70" s="5">
-        <v>1.0966713591424568</v>
-      </c>
-      <c r="I70" s="5">
-        <v>3.7661164342488238</v>
-      </c>
-      <c r="J70" s="5">
-        <v>7.2705692053607329</v>
-      </c>
-      <c r="K70" s="5">
+      <c r="H70" s="3">
+        <v>3.4045245647376134</v>
+      </c>
+      <c r="I70" s="3">
+        <v>6.0221827738443929</v>
+      </c>
+      <c r="J70" s="3">
+        <v>4.2502428989412248E-2</v>
+      </c>
+      <c r="K70" s="3">
         <v>12.695169677736681</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70" s="3">
         <v>17.786670000000001</v>
       </c>
-      <c r="M70" s="6">
+      <c r="M70" s="4">
         <v>-4.0642180642625627</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+      <c r="A71" s="2">
         <v>43281</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="3">
         <v>19.773202457746152</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="3">
         <v>3.1166666666666667</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="3">
         <v>15.35</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="3">
         <v>2002.6103874352857</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="4">
         <v>10.719941338918721</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="3">
         <v>0.83694688754375557</v>
       </c>
-      <c r="H71" s="5">
-        <v>0.88302837577681337</v>
-      </c>
-      <c r="I71" s="5">
-        <v>-3.6753785736316988</v>
-      </c>
-      <c r="J71" s="5">
-        <v>6.9245313749986188</v>
-      </c>
-      <c r="K71" s="5">
+      <c r="H71" s="3">
+        <v>4.2980762449823784</v>
+      </c>
+      <c r="I71" s="3">
+        <v>7.768904040579101</v>
+      </c>
+      <c r="J71" s="3">
+        <v>4.4366563346956212E-2</v>
+      </c>
+      <c r="K71" s="3">
         <v>13.305334983745809</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L71" s="3">
         <v>15.81667</v>
       </c>
-      <c r="M71" s="6">
+      <c r="M71" s="4">
         <v>-14.315716972932286</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+      <c r="A72" s="2">
         <v>43373</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="3">
         <v>20.528197779207677</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="3">
         <v>3.16</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="3">
         <v>15.066666666666668</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="3">
         <v>1995.541183268954</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="4">
         <v>7.9567217020115901</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="3">
         <v>2.8845273968311886</v>
       </c>
-      <c r="H72" s="5">
-        <v>0.99722602083228817</v>
-      </c>
-      <c r="I72" s="5">
-        <v>2.4733646736219623</v>
-      </c>
-      <c r="J72" s="5">
-        <v>7.2155782318189274</v>
-      </c>
-      <c r="K72" s="5">
+      <c r="H72" s="3">
+        <v>3.2330415391344234</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-0.39786175916909888</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2.5516094310929521E-2</v>
+      </c>
+      <c r="K72" s="3">
         <v>12.785194875703976</v>
       </c>
-      <c r="L72" s="5">
+      <c r="L72" s="3">
         <v>12.60333</v>
       </c>
-      <c r="M72" s="6">
+      <c r="M72" s="4">
         <v>-22.925474697701826</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
+      <c r="A73" s="2">
         <v>43465</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="3">
         <v>20.527007541370576</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="3">
         <v>3.0400000000000005</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="3">
         <v>14.696666666666667</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="3">
         <v>2004.4711673515137</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="4">
         <v>12.567655304222242</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="3">
         <v>2.7840543772459263</v>
       </c>
-      <c r="H73" s="5">
-        <v>0.90746603029292738</v>
-      </c>
-      <c r="I73" s="5">
-        <v>-4.3565707867601677</v>
-      </c>
-      <c r="J73" s="5">
-        <v>6.8946708318310286</v>
-      </c>
-      <c r="K73" s="5">
+      <c r="H73" s="3">
+        <v>3.8925766609123627</v>
+      </c>
+      <c r="I73" s="3">
+        <v>4.3565906323050116</v>
+      </c>
+      <c r="J73" s="3">
+        <v>4.3973874627805019E-2</v>
+      </c>
+      <c r="K73" s="3">
         <v>13.71763218584341</v>
       </c>
-      <c r="L73" s="5">
+      <c r="L73" s="3">
         <v>21.573329999999999</v>
       </c>
-      <c r="M73" s="6">
+      <c r="M73" s="4">
         <v>1.2461482920977831</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+      <c r="A74" s="2">
         <v>43555</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="3">
         <v>20.547842891427251</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="3">
         <v>3.0266666666666668</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="3">
         <v>14.853333333333333</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="3">
         <v>1983.3271620585847</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74" s="4">
         <v>1.998705740361999</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G74" s="3">
         <v>1.9299518624145486</v>
       </c>
-      <c r="H74" s="5">
-        <v>1.0255721691938466</v>
-      </c>
-      <c r="I74" s="5">
-        <v>4.0685489244565627</v>
-      </c>
-      <c r="J74" s="5">
-        <v>7.3389074391860269</v>
-      </c>
-      <c r="K74" s="5">
+      <c r="H74" s="3">
+        <v>3.5102510445799484</v>
+      </c>
+      <c r="I74" s="3">
+        <v>1.9784668906180958</v>
+      </c>
+      <c r="J74" s="3">
+        <v>2.0105919338830686E-2</v>
+      </c>
+      <c r="K74" s="3">
         <v>13.22071350319839</v>
       </c>
-      <c r="L74" s="5">
+      <c r="L74" s="3">
         <v>15.02</v>
       </c>
-      <c r="M74" s="6">
+      <c r="M74" s="4">
         <v>0.803055529761456</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
+      <c r="A75" s="2">
         <v>43646</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="3">
         <v>20.084699069246458</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="3">
         <v>3.08</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="3">
         <v>14.976666666666667</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="3">
         <v>1994.755665427442</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="4">
         <v>7.3901278942780149</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="3">
         <v>2.4241131611485525</v>
       </c>
-      <c r="H75" s="5">
-        <v>0.98271400595523251</v>
-      </c>
-      <c r="I75" s="5">
-        <v>7.969420938405297</v>
-      </c>
-      <c r="J75" s="5">
-        <v>7.6410704002106176</v>
-      </c>
-      <c r="K75" s="5">
+      <c r="H75" s="3">
+        <v>2.7689844986574381</v>
+      </c>
+      <c r="I75" s="3">
+        <v>5.7502663974460555</v>
+      </c>
+      <c r="J75" s="3">
+        <v>1.9126716031567365E-2</v>
+      </c>
+      <c r="K75" s="3">
         <v>13.306490641865343</v>
       </c>
-      <c r="L75" s="5">
+      <c r="L75" s="3">
         <v>15.636670000000001</v>
       </c>
-      <c r="M75" s="6">
+      <c r="M75" s="4">
         <v>6.9694228047292137</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
+      <c r="A76" s="2">
         <v>43738</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="3">
         <v>20.449191177184435</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="3">
         <v>3.1199999999999997</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="3">
         <v>14.773333333333333</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="3">
         <v>2004.6324120952465</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="4">
         <v>9.2726163971472069</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76" s="3">
         <v>0.76908432431528206</v>
       </c>
-      <c r="H76" s="5">
-        <v>1.0906467290711153</v>
-      </c>
-      <c r="I76" s="5">
-        <v>-3.8682627401475926</v>
-      </c>
-      <c r="J76" s="5">
-        <v>7.3172023621112281</v>
-      </c>
-      <c r="K76" s="5">
+      <c r="H76" s="3">
+        <v>3.5521185968789273</v>
+      </c>
+      <c r="I76" s="3">
+        <v>6.3947714128704423</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3.2399145217149851E-2</v>
+      </c>
+      <c r="K76" s="3">
         <v>14.293816553067707</v>
       </c>
-      <c r="L76" s="5">
+      <c r="L76" s="3">
         <v>17.113330000000001</v>
       </c>
-      <c r="M76" s="6">
+      <c r="M76" s="4">
         <v>5.3617684771097789</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
+      <c r="A77" s="2">
         <v>43830</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="3">
         <v>20.983602221773648</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="3">
         <v>3.0500000000000003</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="3">
         <v>14.676666666666668</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="3">
         <v>2020.6809373855529</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="4">
         <v>9.0156280612951853</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="3">
         <v>2.3365815794917686</v>
       </c>
-      <c r="H77" s="5">
-        <v>1.0862057737407804</v>
-      </c>
-      <c r="I77" s="5">
-        <v>4.0791084856354516</v>
-      </c>
-      <c r="J77" s="5">
-        <v>6.9590172148404994</v>
-      </c>
-      <c r="K77" s="5">
+      <c r="H77" s="3">
+        <v>3.0053980530220548</v>
+      </c>
+      <c r="I77" s="3">
+        <v>-0.61860434007467768</v>
+      </c>
+      <c r="J77" s="3">
+        <v>1.7399942417751432E-2</v>
+      </c>
+      <c r="K77" s="3">
         <v>14.443276263292622</v>
       </c>
-      <c r="L77" s="5">
+      <c r="L77" s="3">
         <v>13.206670000000001</v>
       </c>
-      <c r="M77" s="6">
+      <c r="M77" s="4">
         <v>-5.8964842596191858</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
+      <c r="A78" s="2">
         <v>43921</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="3">
         <v>21.142119056973478</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="3">
         <v>3.11</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="3">
         <v>14.256666666666666</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="3">
         <v>2017.5787742723749</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="4">
         <v>6.1982461267812896</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="3">
         <v>1.7503767151406935</v>
       </c>
-      <c r="H78" s="5">
-        <v>1.1680811529965185</v>
-      </c>
-      <c r="I78" s="5">
-        <v>13.500495252087962</v>
-      </c>
-      <c r="J78" s="5">
-        <v>6.8590771115916187</v>
-      </c>
-      <c r="K78" s="5">
+      <c r="H78" s="3">
+        <v>-3.0017769363340432</v>
+      </c>
+      <c r="I78" s="3">
+        <v>-11.392764396033863</v>
+      </c>
+      <c r="J78" s="3">
+        <v>-3.3086327367820648E-2</v>
+      </c>
+      <c r="K78" s="3">
         <v>15.038681294636113</v>
       </c>
-      <c r="L78" s="5">
+      <c r="L78" s="3">
         <v>37.496670000000002</v>
       </c>
-      <c r="M78" s="6">
+      <c r="M78" s="4">
         <v>9.1453912824953125</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
+      <c r="A79" s="2">
         <v>44012</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="3">
         <v>18.681765926144351</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="3">
         <v>3.2033333333333331</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="3">
         <v>14.733333333333334</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="3">
         <v>2083.5679669143451</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="4">
         <v>31.996083605387369</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="3">
         <v>1.8967992573764354</v>
       </c>
-      <c r="H79" s="5">
-        <v>2.4396500759997464</v>
-      </c>
-      <c r="I79" s="5">
-        <v>34.048765888479544</v>
-      </c>
-      <c r="J79" s="5">
-        <v>6.8790217146769299</v>
-      </c>
-      <c r="K79" s="5">
+      <c r="H79" s="3">
+        <v>-26.166146212298713</v>
+      </c>
+      <c r="I79" s="3">
+        <v>-90.463015150719144</v>
+      </c>
+      <c r="J79" s="3">
+        <v>-0.29660251752393579</v>
+      </c>
+      <c r="K79" s="3">
         <v>20.332774394747062</v>
       </c>
-      <c r="L79" s="5">
+      <c r="L79" s="3">
         <v>30.696670000000001</v>
       </c>
-      <c r="M79" s="6">
+      <c r="M79" s="4">
         <v>1.0379480082781798</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
+      <c r="A80" s="2">
         <v>44104</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="3">
         <v>17.527581191591775</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="3">
         <v>3.1366666666666667</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="3">
         <v>15.543333333333331</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="3">
         <v>2095.0532813496484</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F80" s="4">
         <v>21.705611289578357</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="3">
         <v>1.0770578363162773</v>
       </c>
-      <c r="H80" s="5">
-        <v>11.346037619452352</v>
-      </c>
-      <c r="I80" s="5">
-        <v>40.691700917981954</v>
-      </c>
-      <c r="J80" s="5">
-        <v>6.7824992383998062</v>
-      </c>
-      <c r="K80" s="5">
+      <c r="H80" s="3">
+        <v>-10.707451105022017</v>
+      </c>
+      <c r="I80" s="3">
+        <v>-11.283824354519069</v>
+      </c>
+      <c r="J80" s="3">
+        <v>-8.9283620008952555E-2</v>
+      </c>
+      <c r="K80" s="3">
         <v>13.91462954551379</v>
       </c>
-      <c r="L80" s="5">
+      <c r="L80" s="3">
         <v>25.746670000000002</v>
       </c>
-      <c r="M80" s="6">
+      <c r="M80" s="4">
         <v>40.137749316242925</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
+      <c r="A81" s="2">
         <v>44196</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="3">
         <v>17.467292526566943</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="3">
         <v>3.6733333333333333</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="3">
         <v>15.533333333333331</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="3">
         <v>2103.571313851498</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="4">
         <v>0.86335685066756318</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="3">
         <v>2.9871539827010984</v>
       </c>
-      <c r="H81" s="5">
-        <v>11.39382261394374</v>
-      </c>
-      <c r="I81" s="5">
-        <v>27.718259820732534</v>
-      </c>
-      <c r="J81" s="5">
-        <v>10.24216066817044</v>
-      </c>
-      <c r="K81" s="5">
+      <c r="H81" s="3">
+        <v>-2.6800219590968672</v>
+      </c>
+      <c r="I81" s="3">
+        <v>12.4738156521001</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1.6246625697724421E-2</v>
+      </c>
+      <c r="K81" s="3">
         <v>11.115923493331184</v>
       </c>
-      <c r="L81" s="5">
+      <c r="L81" s="3">
         <v>27.113330000000001</v>
       </c>
-      <c r="M81" s="6">
+      <c r="M81" s="4">
         <v>15.927098902220923</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
+      <c r="A82" s="2">
         <v>44286</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="3">
         <v>17.042380995314911</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="3">
         <v>3.81</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="3">
         <v>15.729999999999999</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="3">
         <v>2109.1552485303932</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F82" s="4">
         <v>-5.154687005390338</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="3">
         <v>4.3305358934633924</v>
       </c>
-      <c r="H82" s="5">
-        <v>10.98343598912953</v>
-      </c>
-      <c r="I82" s="5">
-        <v>9.9866920412341873</v>
-      </c>
-      <c r="J82" s="5">
-        <v>8.5744293433470276</v>
-      </c>
-      <c r="K82" s="5">
+      <c r="H82" s="3">
+        <v>3.7679244253716049</v>
+      </c>
+      <c r="I82" s="3">
+        <v>28.987814159501113</v>
+      </c>
+      <c r="J82" s="3">
+        <v>4.4205804258443553E-2</v>
+      </c>
+      <c r="K82" s="3">
         <v>10.823927262209519</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="3">
         <v>26.813330000000001</v>
       </c>
-      <c r="M82" s="6">
+      <c r="M82" s="4">
         <v>14.27977714172069</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
+      <c r="A83" s="2">
         <v>44377</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="3">
         <v>17.136720728895842</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="3">
         <v>3.5999999999999996</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="3">
         <v>15.573333333333332</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="3">
         <v>2115.3180360106539</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F83" s="4">
         <v>16.779135977532391</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="3">
         <v>2.2531826830004977</v>
       </c>
-      <c r="H83" s="5">
-        <v>11.212759301034346</v>
-      </c>
-      <c r="I83" s="5">
-        <v>-18.681567174948398</v>
-      </c>
-      <c r="J83" s="5">
-        <v>8.2095718497977757</v>
-      </c>
-      <c r="K83" s="5">
+      <c r="H83" s="3">
+        <v>27.319974857205096</v>
+      </c>
+      <c r="I83" s="3">
+        <v>100.49558228149553</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0.42936399629429012</v>
+      </c>
+      <c r="K83" s="3">
         <v>11.811327962781833</v>
       </c>
-      <c r="L83" s="5">
+      <c r="L83" s="3">
         <v>17.066669999999998</v>
       </c>
-      <c r="M83" s="6">
+      <c r="M83" s="4">
         <v>1.2421521010061147</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
+      <c r="A84" s="2">
         <v>44469</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="3">
         <v>17.036510588212625</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="3">
         <v>3.6966666666666668</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="3">
         <v>15.193333333333333</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="3">
         <v>2128.2598685204266</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="4">
         <v>16.210543231842394</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="3">
         <v>8.6471891631722002</v>
       </c>
-      <c r="H84" s="5">
-        <v>20.142068088161622</v>
-      </c>
-      <c r="I84" s="5">
-        <v>-18.607712737373863</v>
-      </c>
-      <c r="J84" s="5">
-        <v>11.20374409426792</v>
-      </c>
-      <c r="K84" s="5">
+      <c r="H84" s="3">
+        <v>12.196678214612705</v>
+      </c>
+      <c r="I84" s="3">
+        <v>22.466341293713228</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0.11374077102354951</v>
+      </c>
+      <c r="K84" s="3">
         <v>14.002105002667232</v>
       </c>
-      <c r="L84" s="5">
+      <c r="L84" s="3">
         <v>19.286670000000001</v>
       </c>
-      <c r="M84" s="6">
+      <c r="M84" s="4">
         <v>-5.4028022838056904</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
+      <c r="A85" s="2">
         <v>44561</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="3">
         <v>18.10986363123952</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="3">
         <v>3.8166666666666664</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="3">
         <v>15.016666666666667</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="3">
         <v>2112.9998358642051</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="4">
         <v>-4.0367047510178802</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85" s="3">
         <v>7.9482664519909987</v>
       </c>
-      <c r="H85" s="5">
-        <v>20.468082250742796</v>
-      </c>
-      <c r="I85" s="5">
-        <v>-11.555813629112054</v>
-      </c>
-      <c r="J85" s="5">
-        <v>12.431205549766171</v>
-      </c>
-      <c r="K85" s="5">
+      <c r="H85" s="3">
+        <v>4.6347214589798753</v>
+      </c>
+      <c r="I85" s="3">
+        <v>-1.6518099370012074</v>
+      </c>
+      <c r="J85" s="3">
+        <v>3.1367694127484448E-2</v>
+      </c>
+      <c r="K85" s="3">
         <v>12.507705128741083</v>
       </c>
-      <c r="L85" s="5">
+      <c r="L85" s="3">
         <v>20.223330000000001</v>
       </c>
-      <c r="M85" s="6">
+      <c r="M85" s="4">
         <v>8.4992741597826651</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+      <c r="A86" s="2">
         <v>44651</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="3">
         <v>18.717830960509033</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="3">
         <v>3.84</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="3">
         <v>14.81</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="3">
         <v>2091.7114839426208</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="4">
         <v>-0.80434294186731337</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="3">
         <v>5.3060804293413799</v>
       </c>
-      <c r="H86" s="5">
-        <v>20.470348142906154</v>
-      </c>
-      <c r="I86" s="5">
-        <v>-12.098656576051022</v>
-      </c>
-      <c r="J86" s="5">
-        <v>10.442270688145451</v>
-      </c>
-      <c r="K86" s="5">
+      <c r="H86" s="3">
+        <v>4.3816209911743567</v>
+      </c>
+      <c r="I86" s="3">
+        <v>-1.5994598958828532</v>
+      </c>
+      <c r="J86" s="3">
+        <v>3.8007697507368023E-2</v>
+      </c>
+      <c r="K86" s="3">
         <v>9.7739066146262328</v>
       </c>
-      <c r="L86" s="5">
+      <c r="L86" s="3">
         <v>25.18</v>
       </c>
-      <c r="M86" s="6">
+      <c r="M86" s="4">
         <v>-16.988441081859435</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
+      <c r="A87" s="2">
         <v>44742</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="3">
         <v>18.613331524607172</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="3">
         <v>3.7966666666666669</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="3">
         <v>14.910000000000002</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="3">
         <v>2071.8389351351484</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F87" s="4">
         <v>8.8407392358900818</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87" s="3">
         <v>9.9581961409198687</v>
       </c>
-      <c r="H87" s="5">
-        <v>20.346357320138193</v>
-      </c>
-      <c r="I87" s="5">
-        <v>2.6577576728627261</v>
-      </c>
-      <c r="J87" s="5">
-        <v>11.335507661975379</v>
-      </c>
-      <c r="K87" s="5">
+      <c r="H87" s="3">
+        <v>4.0715609757002502</v>
+      </c>
+      <c r="I87" s="3">
+        <v>0.89554360011968992</v>
+      </c>
+      <c r="J87" s="3">
+        <v>3.5245385700556985E-2</v>
+      </c>
+      <c r="K87" s="3">
         <v>10.539340551174037</v>
       </c>
-      <c r="L87" s="5">
+      <c r="L87" s="3">
         <v>29.433330000000002</v>
       </c>
-      <c r="M87" s="6">
+      <c r="M87" s="4">
         <v>-35.788434420442115</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
+      <c r="A88" s="2">
         <v>44834</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="3">
         <v>18.991813127845337</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="3">
         <v>3.91</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="3">
         <v>14.636666666666668</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="3">
         <v>2073.5906497738374</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F88" s="4">
         <v>12.051041254631798</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G88" s="3">
         <v>9.6426094415321071</v>
       </c>
-      <c r="H88" s="5">
-        <v>15.499656580218439</v>
-      </c>
-      <c r="I88" s="5">
-        <v>8.5925483925221169</v>
-      </c>
-      <c r="J88" s="5">
-        <v>9.2374374644911601</v>
-      </c>
-      <c r="K88" s="5">
+      <c r="H88" s="3">
+        <v>3.1387593249483445</v>
+      </c>
+      <c r="I88" s="3">
+        <v>1.0046768826958308</v>
+      </c>
+      <c r="J88" s="3">
+        <v>1.9643883871116843E-2</v>
+      </c>
+      <c r="K88" s="3">
         <v>13.272902861626429</v>
       </c>
-      <c r="L88" s="5">
+      <c r="L88" s="3">
         <v>26.273330000000001</v>
       </c>
-      <c r="M88" s="6">
+      <c r="M88" s="4">
         <v>-9.6024795396810614</v>
       </c>
     </row>
